--- a/Arquivos/tabela.xlsx
+++ b/Arquivos/tabela.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petro\Dropbox\Estatistica\Meus_Livros\Book_new\projeto-bioestat\Arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petro\Dropbox\Estatistica\Meus_Livros\bookR\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111546FC-8C56-41D4-94CC-BDD2AE97D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589FCDB5-5960-4EA5-BB7E-C10A076B14DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{05EF8B22-FEB5-4AB7-B11E-2021C6290FB3}"/>
+    <workbookView xWindow="8400" yWindow="1395" windowWidth="14190" windowHeight="12480" xr2:uid="{05EF8B22-FEB5-4AB7-B11E-2021C6290FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,7 +182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -288,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -478,11 +478,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
         <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -501,11 +501,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
         <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -524,11 +524,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -547,11 +547,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
